--- a/Wjsg/Verstrekkingen.xlsx
+++ b/Wjsg/Verstrekkingen.xlsx
@@ -111,21 +111,6 @@
     <t>artikel 6, eerste lid, van het Besluit justitiële gegevens</t>
   </si>
   <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=a</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0014194&amp;artikel=12</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0014194&amp;artikel=11</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0014194&amp;artikel=10</t>
-  </si>
-  <si>
     <t>g7-1-a</t>
   </si>
   <si>
@@ -162,39 +147,6 @@
     <t>g7-1-l</t>
   </si>
   <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=b</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=c</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=d</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=e</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=f</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=g</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=i</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=k</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=l</t>
-  </si>
-  <si>
     <t>g10</t>
   </si>
   <si>
@@ -213,9 +165,6 @@
     <t>g6-2</t>
   </si>
   <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=2</t>
-  </si>
-  <si>
     <t>artikel 6, tweede lid, van het Besluit justitiële gegevens</t>
   </si>
   <si>
@@ -273,9 +222,6 @@
     <t>g7-1-h-1</t>
   </si>
   <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=1</t>
-  </si>
-  <si>
     <t>g7-1-h-2</t>
   </si>
   <si>
@@ -288,30 +234,12 @@
     <t>g7-1-h-5</t>
   </si>
   <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=2</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=3</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=4</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=5</t>
-  </si>
-  <si>
     <t>g7-1-a-1</t>
   </si>
   <si>
     <t>g7-1-a-2</t>
   </si>
   <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=a&amp;onderdeel=1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=a&amp;onderdeel=2</t>
-  </si>
-  <si>
     <t>g7-1-g-1</t>
   </si>
   <si>
@@ -324,60 +252,12 @@
     <t>g7-1-g-4</t>
   </si>
   <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=g&amp;onderdeel=1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=g&amp;onderdeel=2</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=g&amp;onderdeel=3</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=g&amp;onderdeel=4</t>
-  </si>
-  <si>
     <t>g7-1-i-1</t>
   </si>
   <si>
     <t>g7-1-i-2</t>
   </si>
   <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=i&amp;onderdeel=1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=i&amp;onderdeel=2</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=2</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=3</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=4</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=5</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=6</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=7</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=k&amp;onderdeel=1</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=k&amp;onderdeel=2</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=k&amp;onderdeel=3</t>
-  </si>
-  <si>
     <t>g7-1-k-1</t>
   </si>
   <si>
@@ -411,9 +291,6 @@
     <t>artikel 6 van het Besluit justitiële gegevens</t>
   </si>
   <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6</t>
-  </si>
-  <si>
     <t>g6</t>
   </si>
   <si>
@@ -669,27 +546,6 @@
     <t>g6-1-g</t>
   </si>
   <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=a</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=b</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=c</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=d</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=e</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=f</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=g</t>
-  </si>
-  <si>
     <t>g6-2-a</t>
   </si>
   <si>
@@ -705,21 +561,6 @@
     <t>g6-2-e</t>
   </si>
   <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=2&amp;onder=a</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=2&amp;onder=b</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=2&amp;onder=c</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=2&amp;onder=d</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=2&amp;onder=e</t>
-  </si>
-  <si>
     <t>v</t>
   </si>
   <si>
@@ -907,24 +748,175 @@
   </si>
   <si>
     <t>verbijzonderd</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=e</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0014194&amp;artikel=10</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0014194&amp;artikel=11</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0014194&amp;artikel=12</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=6</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=a</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=b</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=c</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=d</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=e</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=f</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=g</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=2</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=2&amp;onder=a</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=2&amp;onder=b</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=2&amp;onder=c</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=2&amp;onder=d</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=2&amp;onder=e</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=a</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=a&amp;onderdeel=1</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=a&amp;onderdeel=2</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=b</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=c</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=d</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=f</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=g</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=g&amp;onderdeel=1</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=g&amp;onderdeel=2</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=g&amp;onderdeel=3</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=g&amp;onderdeel=4</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=1</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=2</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=3</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=4</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=5</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=i</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=i&amp;onderdeel=1</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=i&amp;onderdeel=2</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=1</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=2</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=3</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=4</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=5</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=6</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=j&amp;onderdeel=7</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=k</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=k&amp;onderdeel=1</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=k&amp;onderdeel=2</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=k&amp;onderdeel=3</t>
+  </si>
+  <si>
+    <t>jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=l</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -947,16 +939,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1258,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,10 +1287,10 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="F6" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1312,13 +1301,13 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1329,205 +1318,205 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="G11" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="B12" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="F12" t="s">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="F13" t="s">
-        <v>266</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>267</v>
+        <v>213</v>
+      </c>
+      <c r="G13" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="F14" t="s">
-        <v>279</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>282</v>
+        <v>226</v>
+      </c>
+      <c r="G14" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="F15" t="s">
-        <v>280</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>283</v>
+        <v>227</v>
+      </c>
+      <c r="G15" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="F16" t="s">
-        <v>281</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>284</v>
+        <v>228</v>
+      </c>
+      <c r="G16" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
@@ -1536,21 +1525,21 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="F17" t="s">
-        <v>292</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>293</v>
+        <v>239</v>
+      </c>
+      <c r="G17" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -1564,15 +1553,15 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -1580,7 +1569,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1588,162 +1577,162 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="B33" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="C33" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>257</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="B36" t="s">
-        <v>274</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="B37" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1751,10 +1740,10 @@
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="C40" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -1774,7 +1763,7 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1796,240 +1785,240 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="E46" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="E48" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="E49" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="E50" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="E51" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="E54" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="E55" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="E57" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="B58" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="D58" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="E58" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="B59" t="s">
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="D59" t="s">
-        <v>263</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2054,7 +2043,7 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2065,68 +2054,68 @@
         <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="D66" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="D70" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s">
         <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="D71" t="s">
         <v>30</v>
@@ -2134,661 +2123,577 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="D72" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
       <c r="E72" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="D73" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="D74" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="D75" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="D76" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="D77" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="D78" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>65</v>
+        <v>257</v>
       </c>
       <c r="D79" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="D80" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="D81" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="D82" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="D83" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="D84" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>96</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>97</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>48</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>49</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>50</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>51</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>52</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>53</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>102</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
       </c>
       <c r="C96" t="s">
-        <v>104</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B98" t="s">
         <v>20</v>
       </c>
       <c r="C98" t="s">
-        <v>54</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
       </c>
       <c r="C99" t="s">
-        <v>85</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
       </c>
       <c r="C100" t="s">
-        <v>90</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>91</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>92</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B103" t="s">
         <v>20</v>
       </c>
       <c r="C103" t="s">
-        <v>93</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
       </c>
       <c r="C104" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B105" t="s">
         <v>20</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B106" t="s">
         <v>20</v>
       </c>
       <c r="C106" t="s">
-        <v>109</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B107" t="s">
         <v>20</v>
       </c>
       <c r="C107" t="s">
-        <v>56</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B108" t="s">
         <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>110</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
       </c>
       <c r="C109" t="s">
-        <v>111</v>
+        <v>286</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B110" t="s">
         <v>20</v>
       </c>
       <c r="C110" t="s">
-        <v>112</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B111" t="s">
         <v>20</v>
       </c>
       <c r="C111" t="s">
-        <v>113</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B112" t="s">
         <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>289</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
       </c>
       <c r="C113" t="s">
-        <v>115</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B114" t="s">
         <v>20</v>
       </c>
       <c r="C114" t="s">
-        <v>116</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B115" t="s">
         <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>57</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B116" t="s">
         <v>20</v>
       </c>
       <c r="C116" t="s">
-        <v>117</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="B117" t="s">
         <v>20</v>
       </c>
       <c r="C117" t="s">
-        <v>118</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B118" t="s">
         <v>20</v>
       </c>
       <c r="C118" t="s">
-        <v>119</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B119" t="s">
         <v>20</v>
       </c>
       <c r="C119" t="s">
-        <v>58</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E42" r:id="rId1" display="http://wetten.overheid.nl/jci1.3:c:BWBR0002979&amp;artikel=8&amp;z=2016-07-01&amp;g=2016-07-01"/>
-    <hyperlink ref="D71" r:id="rId2" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;hoofdstuk=2&amp;afdeling=1&amp;artikel=6&amp;lid=1"/>
-    <hyperlink ref="C71" r:id="rId3"/>
-    <hyperlink ref="C85" r:id="rId4"/>
-    <hyperlink ref="C69" r:id="rId5"/>
-    <hyperlink ref="C68" r:id="rId6"/>
-    <hyperlink ref="C67" r:id="rId7"/>
-    <hyperlink ref="C88:C119" r:id="rId8" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=a"/>
-    <hyperlink ref="C88" r:id="rId9"/>
-    <hyperlink ref="C89" r:id="rId10"/>
-    <hyperlink ref="C90" r:id="rId11"/>
-    <hyperlink ref="C91" r:id="rId12"/>
-    <hyperlink ref="C92" r:id="rId13"/>
-    <hyperlink ref="C93" r:id="rId14"/>
-    <hyperlink ref="C98" r:id="rId15"/>
-    <hyperlink ref="C104" r:id="rId16"/>
-    <hyperlink ref="C107" r:id="rId17"/>
-    <hyperlink ref="C115" r:id="rId18"/>
-    <hyperlink ref="C119" r:id="rId19"/>
-    <hyperlink ref="D79" r:id="rId20" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;hoofdstuk=2&amp;afdeling=1&amp;artikel=6&amp;lid=1"/>
-    <hyperlink ref="C79" r:id="rId21"/>
-    <hyperlink ref="G8" r:id="rId22" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;hoofdstuk=3&amp;afdeling=1&amp;paragraaf=1&amp;artikel=11a&amp;lid=1"/>
-    <hyperlink ref="G9" r:id="rId23" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;hoofdstuk=3&amp;afdeling=1&amp;paragraaf=1&amp;artikel=11a&amp;lid=1"/>
-    <hyperlink ref="G10" r:id="rId24" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;hoofdstuk=3&amp;afdeling=1&amp;paragraaf=1&amp;artikel=11a&amp;lid=1"/>
-    <hyperlink ref="C99" r:id="rId25"/>
-    <hyperlink ref="C100" r:id="rId26"/>
-    <hyperlink ref="C101" r:id="rId27"/>
-    <hyperlink ref="C102" r:id="rId28"/>
-    <hyperlink ref="C103" r:id="rId29"/>
-    <hyperlink ref="C86:C87" r:id="rId30" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=a"/>
-    <hyperlink ref="C86" r:id="rId31"/>
-    <hyperlink ref="C87" r:id="rId32"/>
-    <hyperlink ref="C94:C97" r:id="rId33" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=a"/>
-    <hyperlink ref="C94" r:id="rId34" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=1"/>
-    <hyperlink ref="C95" r:id="rId35" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=2"/>
-    <hyperlink ref="C96" r:id="rId36" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=3"/>
-    <hyperlink ref="C97" r:id="rId37" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=4"/>
-    <hyperlink ref="C105:C106" r:id="rId38" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=a"/>
-    <hyperlink ref="C105" r:id="rId39"/>
-    <hyperlink ref="C106" r:id="rId40"/>
-    <hyperlink ref="C108:C112" r:id="rId41" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=a"/>
-    <hyperlink ref="C108" r:id="rId42" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=1"/>
-    <hyperlink ref="C109" r:id="rId43" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=2"/>
-    <hyperlink ref="C110" r:id="rId44" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=3"/>
-    <hyperlink ref="C111" r:id="rId45" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=4"/>
-    <hyperlink ref="C112" r:id="rId46" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=5"/>
-    <hyperlink ref="C113:C114" r:id="rId47" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=a"/>
-    <hyperlink ref="C113" r:id="rId48" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=6"/>
-    <hyperlink ref="C114" r:id="rId49" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=7"/>
-    <hyperlink ref="C116:C118" r:id="rId50" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=a"/>
-    <hyperlink ref="C116" r:id="rId51" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=1"/>
-    <hyperlink ref="C117" r:id="rId52" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=2"/>
-    <hyperlink ref="C118" r:id="rId53" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=7&amp;lid=1&amp;onder=h&amp;onderdeel=3"/>
-    <hyperlink ref="D70" r:id="rId54" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;hoofdstuk=2&amp;afdeling=1&amp;artikel=6&amp;lid=1"/>
-    <hyperlink ref="C70" r:id="rId55"/>
-    <hyperlink ref="D26" r:id="rId56" display="http://wetten.overheid.nl/jci1.3:c:BWBR0022463&amp;paragraaf=1&amp;artikel=3&amp;lid=2"/>
-    <hyperlink ref="D27" r:id="rId57" display="http://wetten.overheid.nl/jci1.3:c:BWBR0022463&amp;paragraaf=1&amp;artikel=3&amp;lid=2"/>
-    <hyperlink ref="D28" r:id="rId58" display="http://wetten.overheid.nl/jci1.3:c:BWBR0022463&amp;paragraaf=1&amp;artikel=3&amp;lid=2"/>
-    <hyperlink ref="D29" r:id="rId59" display="http://wetten.overheid.nl/jci1.3:c:BWBR0022463&amp;paragraaf=1&amp;artikel=3&amp;lid=2"/>
-    <hyperlink ref="D30" r:id="rId60" display="http://wetten.overheid.nl/jci1.3:c:BWBR0022463&amp;paragraaf=1&amp;artikel=3&amp;lid=2"/>
-    <hyperlink ref="D31" r:id="rId61" display="http://wetten.overheid.nl/jci1.3:c:BWBR0034925&amp;hoofdstuk=2&amp;artikel=2.1&amp;z=2017-02-28&amp;g=2017-02-28"/>
-    <hyperlink ref="D32" r:id="rId62" display="http://wetten.overheid.nl/jci1.3:c:BWBR0034925&amp;hoofdstuk=2&amp;artikel=2.4&amp;lid=2"/>
-    <hyperlink ref="D72" r:id="rId63" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;hoofdstuk=2&amp;afdeling=1&amp;artikel=6&amp;lid=1"/>
-    <hyperlink ref="C72" r:id="rId64"/>
-    <hyperlink ref="C73" r:id="rId65"/>
-    <hyperlink ref="C74" r:id="rId66"/>
-    <hyperlink ref="C75" r:id="rId67"/>
-    <hyperlink ref="C76" r:id="rId68"/>
-    <hyperlink ref="C77" r:id="rId69"/>
-    <hyperlink ref="C78" r:id="rId70"/>
-    <hyperlink ref="C80" r:id="rId71" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=a"/>
-    <hyperlink ref="C81" r:id="rId72" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=b"/>
-    <hyperlink ref="C82" r:id="rId73" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=c"/>
-    <hyperlink ref="C83" r:id="rId74" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=d"/>
-    <hyperlink ref="C84" r:id="rId75" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;artikel=6&amp;lid=1&amp;onder=e"/>
-    <hyperlink ref="D73:D78" r:id="rId76" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;hoofdstuk=2&amp;afdeling=1&amp;artikel=6&amp;lid=1"/>
-    <hyperlink ref="D80:D84" r:id="rId77" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;hoofdstuk=2&amp;afdeling=1&amp;artikel=6&amp;lid=1"/>
-    <hyperlink ref="G13" r:id="rId78" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;hoofdstuk=3&amp;afdeling=1&amp;paragraaf=2&amp;artikel=12&amp;z=2017-03-01&amp;g=2017-03-01"/>
-    <hyperlink ref="G14" r:id="rId79" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;hoofdstuk=3&amp;afdeling=1&amp;paragraaf=2&amp;artikel=12&amp;z=2017-03-01&amp;g=2017-03-01"/>
-    <hyperlink ref="G15" r:id="rId80" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;hoofdstuk=3&amp;afdeling=1&amp;paragraaf=2&amp;artikel=12&amp;z=2017-03-01&amp;g=2017-03-01"/>
-    <hyperlink ref="G16" r:id="rId81" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;hoofdstuk=3&amp;afdeling=1&amp;paragraaf=2&amp;artikel=12&amp;z=2017-03-01&amp;g=2017-03-01"/>
-    <hyperlink ref="G17" r:id="rId82" display="http://wetten.overheid.nl/jci1.3:c:BWBR0016544&amp;hoofdstuk=3&amp;afdeling=1&amp;paragraaf=2&amp;artikel=12&amp;z=2017-03-01&amp;g=2017-03-01"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId83"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
